--- a/Имитационное моделирование/Пасько Д. А. 202 1. Лабораторная 3.xlsx
+++ b/Имитационное моделирование/Пасько Д. А. 202 1. Лабораторная 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qtckp\OneDrive\Рабочий стол\6-course-tasks\Имитационное моделирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B53FC-1B88-47A6-8821-91AF2069604E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1A3304-39AD-4026-A7E8-E076B0467B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="1665" windowWidth="16425" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -241,19 +238,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,50 +554,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -614,7 +614,7 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f xml:space="preserve"> C3*1000-1</f>
         <v>1</v>
       </c>
@@ -637,23 +637,23 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+5</f>
+        <f t="shared" ref="A4:A15" si="0">A3+5</f>
         <v>475</v>
       </c>
       <c r="B4">
-        <f>_xlfn.GAUSS((A4+2.5-500)/10)-_xlfn.GAUSS((A4-2.5-500)/10)</f>
+        <f t="shared" ref="B4:B15" si="1">_xlfn.GAUSS((A4+2.5-500)/10)-_xlfn.GAUSS((A4-2.5-500)/10)</f>
         <v>9.2447094199901159E-3</v>
       </c>
       <c r="C4">
-        <f>C3+B4</f>
+        <f t="shared" ref="C4:C15" si="2">C3+B4</f>
         <v>1.1244709419990116E-2</v>
       </c>
       <c r="D4">
-        <f>E3+1</f>
+        <f t="shared" ref="D4:D15" si="3">E3+1</f>
         <v>2</v>
       </c>
       <c r="E4">
-        <f>C4*1000-1</f>
+        <f t="shared" ref="E4:E15" si="4">C4*1000-1</f>
         <v>10.244709419990116</v>
       </c>
       <c r="G4">
@@ -677,23 +677,23 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4+5</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="B5">
-        <f>_xlfn.GAUSS((A5+2.5-500)/10)-_xlfn.GAUSS((A5-2.5-500)/10)</f>
+        <f t="shared" si="1"/>
         <v>2.7834684208772442E-2</v>
       </c>
       <c r="C5">
-        <f>C4+B5</f>
+        <f t="shared" si="2"/>
         <v>3.907939362876256E-2</v>
       </c>
       <c r="D5">
-        <f>E4+1</f>
+        <f t="shared" si="3"/>
         <v>11.244709419990116</v>
       </c>
       <c r="E5">
-        <f>C5*1000-1</f>
+        <f t="shared" si="4"/>
         <v>38.07939362876256</v>
       </c>
       <c r="G5">
@@ -717,23 +717,23 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5+5</f>
+        <f t="shared" si="0"/>
         <v>485</v>
       </c>
       <c r="B6">
-        <f>_xlfn.GAUSS((A6+2.5-500)/10)-_xlfn.GAUSS((A6-2.5-500)/10)</f>
+        <f t="shared" si="1"/>
         <v>6.5590616803038126E-2</v>
       </c>
       <c r="C6">
-        <f>C5+B6</f>
+        <f t="shared" si="2"/>
         <v>0.10467001043180069</v>
       </c>
       <c r="D6">
-        <f>E5+1</f>
+        <f t="shared" si="3"/>
         <v>39.07939362876256</v>
       </c>
       <c r="E6">
-        <f>C6*1000-1</f>
+        <f t="shared" si="4"/>
         <v>103.67001043180069</v>
       </c>
       <c r="G6">
@@ -757,1085 +757,1065 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+5</f>
+        <f t="shared" si="0"/>
         <v>490</v>
       </c>
       <c r="B7">
-        <f>_xlfn.GAUSS((A7+2.5-500)/10)-_xlfn.GAUSS((A7-2.5-500)/10)</f>
+        <f t="shared" si="1"/>
         <v>0.12097757871001297</v>
       </c>
       <c r="C7">
-        <f>C6+B7</f>
+        <f t="shared" si="2"/>
         <v>0.22564758914181365</v>
       </c>
       <c r="D7">
-        <f>E6+1</f>
+        <f t="shared" si="3"/>
         <v>104.67001043180069</v>
       </c>
       <c r="E7">
-        <f>C7*1000-1</f>
+        <f t="shared" si="4"/>
         <v>224.64758914181365</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+5</f>
+        <f t="shared" si="0"/>
         <v>495</v>
       </c>
       <c r="B8">
-        <f>_xlfn.GAUSS((A8+2.5-500)/10)-_xlfn.GAUSS((A8-2.5-500)/10)</f>
+        <f t="shared" si="1"/>
         <v>0.17466632194020809</v>
       </c>
       <c r="C8">
-        <f>C7+B8</f>
+        <f t="shared" si="2"/>
         <v>0.40031391108202175</v>
       </c>
       <c r="D8">
-        <f>E7+1</f>
+        <f t="shared" si="3"/>
         <v>225.64758914181365</v>
       </c>
       <c r="E8">
-        <f>C8*1000-1</f>
+        <f t="shared" si="4"/>
         <v>399.31391108202172</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+5</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="B9">
-        <f>_xlfn.GAUSS((A9+2.5-500)/10)-_xlfn.GAUSS((A9-2.5-500)/10)</f>
+        <f t="shared" si="1"/>
         <v>0.1974126513658474</v>
       </c>
       <c r="C9">
-        <f>C8+B9</f>
+        <f t="shared" si="2"/>
         <v>0.59772656244786915</v>
       </c>
       <c r="D9">
-        <f>E8+1</f>
+        <f t="shared" si="3"/>
         <v>400.31391108202172</v>
       </c>
       <c r="E9">
-        <f>C9*1000-1</f>
+        <f t="shared" si="4"/>
         <v>596.72656244786913</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+5</f>
+        <f t="shared" si="0"/>
         <v>505</v>
       </c>
       <c r="B10">
-        <f>_xlfn.GAUSS((A10+2.5-500)/10)-_xlfn.GAUSS((A10-2.5-500)/10)</f>
+        <f t="shared" si="1"/>
         <v>0.17466632194020804</v>
       </c>
       <c r="C10">
-        <f>C9+B10</f>
+        <f t="shared" si="2"/>
         <v>0.77239288438807718</v>
       </c>
       <c r="D10">
-        <f>E9+1</f>
+        <f t="shared" si="3"/>
         <v>597.72656244786913</v>
       </c>
       <c r="E10">
-        <f>C10*1000-1</f>
+        <f t="shared" si="4"/>
         <v>771.39288438807716</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10+5</f>
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
       <c r="B11">
-        <f>_xlfn.GAUSS((A11+2.5-500)/10)-_xlfn.GAUSS((A11-2.5-500)/10)</f>
+        <f t="shared" si="1"/>
         <v>0.12097757871001302</v>
       </c>
       <c r="C11">
-        <f>C10+B11</f>
+        <f t="shared" si="2"/>
         <v>0.89337046309809021</v>
       </c>
       <c r="D11">
-        <f>E10+1</f>
+        <f t="shared" si="3"/>
         <v>772.39288438807716</v>
       </c>
       <c r="E11">
-        <f>C11*1000-1</f>
+        <f t="shared" si="4"/>
         <v>892.37046309809023</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11+5</f>
+        <f t="shared" si="0"/>
         <v>515</v>
       </c>
       <c r="B12">
-        <f>_xlfn.GAUSS((A12+2.5-500)/10)-_xlfn.GAUSS((A12-2.5-500)/10)</f>
+        <f t="shared" si="1"/>
         <v>6.5590616803038126E-2</v>
       </c>
       <c r="C12">
-        <f>C11+B12</f>
+        <f t="shared" si="2"/>
         <v>0.95896107990112833</v>
       </c>
       <c r="D12">
-        <f>E11+1</f>
+        <f t="shared" si="3"/>
         <v>893.37046309809023</v>
       </c>
       <c r="E12">
-        <f>C12*1000-1</f>
+        <f t="shared" si="4"/>
         <v>957.9610799011283</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>A12+5</f>
+        <f t="shared" si="0"/>
         <v>520</v>
       </c>
       <c r="B13">
-        <f>_xlfn.GAUSS((A13+2.5-500)/10)-_xlfn.GAUSS((A13-2.5-500)/10)</f>
+        <f t="shared" si="1"/>
         <v>2.7834684208772442E-2</v>
       </c>
       <c r="C13">
-        <f>C12+B13</f>
+        <f t="shared" si="2"/>
         <v>0.98679576410990077</v>
       </c>
       <c r="D13">
-        <f>E12+1</f>
+        <f t="shared" si="3"/>
         <v>958.9610799011283</v>
       </c>
       <c r="E13">
-        <f>C13*1000-1</f>
+        <f t="shared" si="4"/>
         <v>985.7957641099008</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>A13+5</f>
+        <f t="shared" si="0"/>
         <v>525</v>
       </c>
       <c r="B14">
-        <f>_xlfn.GAUSS((A14+2.5-500)/10)-_xlfn.GAUSS((A14-2.5-500)/10)</f>
+        <f t="shared" si="1"/>
         <v>9.2447094199901159E-3</v>
       </c>
       <c r="C14">
-        <f>C13+B14</f>
+        <f t="shared" si="2"/>
         <v>0.99604047352989089</v>
       </c>
       <c r="D14">
-        <f>E13+1</f>
+        <f t="shared" si="3"/>
         <v>986.7957641099008</v>
       </c>
       <c r="E14">
-        <f>C14*1000-1</f>
+        <f t="shared" si="4"/>
         <v>995.04047352989085</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>A14+5</f>
+        <f t="shared" si="0"/>
         <v>530</v>
       </c>
       <c r="B15">
-        <f>_xlfn.GAUSS((A15+2.5-500)/10)-_xlfn.GAUSS((A15-2.5-500)/10)</f>
+        <f t="shared" si="1"/>
         <v>2.4027381926637892E-3</v>
       </c>
       <c r="C15">
-        <f>C14+B15</f>
+        <f t="shared" si="2"/>
         <v>0.99844321172255468</v>
       </c>
       <c r="D15">
-        <f>E14+1</f>
+        <f t="shared" si="3"/>
         <v>996.04047352989085</v>
       </c>
       <c r="E15">
-        <f>C15*1000-1</f>
+        <f t="shared" si="4"/>
         <v>997.44321172255468</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="5">
         <v>1</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="5">
         <v>2000</v>
       </c>
-      <c r="C20" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>834.93309000922272</v>
-      </c>
-      <c r="D20" s="10">
-        <f ca="1">IF(C20&lt;401,IF(C20&lt;$E$3,$A$3,IF(C20&lt;$E$4,$A$4,IF(C20&lt;$E$5,$A$5,IF(C20&lt;$E$6,$A$6,IF(C20&lt;$E$7,$A$7,$A$8))))),IF(C20&lt;$E$9,$A$9,IF(C20&lt;$E$10,$A$10,IF(C20&lt;$E$11,$A$11,IF(C20&lt;$E$12,$A$12,IF(C20&lt;$E$13,$A$13,IF(C20&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>510</v>
-      </c>
-      <c r="E20" s="10">
-        <f ca="1">IF(B20-D20&gt;0,B20-D20,0)</f>
-        <v>1490</v>
-      </c>
-      <c r="F20" s="10" t="str">
+      <c r="C20" s="5">
+        <f t="shared" ref="C20:C39" ca="1" si="5">RAND()*1000</f>
+        <v>746.90537059985445</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:D39" ca="1" si="6">IF(C20&lt;401,IF(C20&lt;$E$3,$A$3,IF(C20&lt;$E$4,$A$4,IF(C20&lt;$E$5,$A$5,IF(C20&lt;$E$6,$A$6,IF(C20&lt;$E$7,$A$7,$A$8))))),IF(C20&lt;$E$9,$A$9,IF(C20&lt;$E$10,$A$10,IF(C20&lt;$E$11,$A$11,IF(C20&lt;$E$12,$A$12,IF(C20&lt;$E$13,$A$13,IF(C20&lt;$E$14,$A$14,$A$15)))))))</f>
+        <v>505</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20:E39" ca="1" si="7">IF(B20-D20&gt;0,B20-D20,0)</f>
+        <v>1495</v>
+      </c>
+      <c r="F20" s="5" t="str">
         <f>IF(B20&lt;1500,"да","нет")</f>
         <v>нет</v>
       </c>
-      <c r="G20" s="10" t="str">
-        <f ca="1">IF(F20="да",RAND()*100," ")</f>
+      <c r="G20" s="5" t="str">
+        <f t="shared" ref="G20:G39" ca="1" si="8">IF(F20="да",RAND()*100," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H20" s="10">
-        <f ca="1">IF(G20=" ",0,IF(G20&lt;$J$4,$G$3,
-IF(G20&lt;$J$5,$G$4,IF(G20&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="10">
-        <f ca="1">IF(B20-D20&lt;0,B20-D20,0)</f>
+      <c r="H20" s="5">
+        <f ca="1">IF(G20=" ",0,IF(G20&lt;$J$4,$G$3,IF(G20&lt;$J$5,$G$4,IF(G20&lt;$J$6,$G$5,$G$6))))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" ref="I20:I39" ca="1" si="9">IF(B20-D20&lt;0,B20-D20,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <f>A20+1</f>
+      <c r="A21" s="5">
+        <f t="shared" ref="A21:A39" si="10">A20+1</f>
         <v>2</v>
       </c>
-      <c r="B21" s="10">
-        <f ca="1">IF(H20=1,E20+2500,E20)</f>
-        <v>1490</v>
-      </c>
-      <c r="C21" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>806.29285354718945</v>
-      </c>
-      <c r="D21" s="10">
-        <f ca="1">IF(C21&lt;401,IF(C21&lt;$E$3,$A$3,IF(C21&lt;$E$4,$A$4,IF(C21&lt;$E$5,$A$5,IF(C21&lt;$E$6,$A$6,IF(C21&lt;$E$7,$A$7,$A$8))))),IF(C21&lt;$E$9,$A$9,IF(C21&lt;$E$10,$A$10,IF(C21&lt;$E$11,$A$11,IF(C21&lt;$E$12,$A$12,IF(C21&lt;$E$13,$A$13,IF(C21&lt;$E$14,$A$14,$A$15)))))))</f>
+      <c r="B21" s="5">
+        <f t="shared" ref="B21:B39" ca="1" si="11">IF(H20=1,E20+2500,E20)</f>
+        <v>1495</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>21.797140158048567</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>480</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>1015</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f t="shared" ref="F21:F39" ca="1" si="12">IF(AND(B21&lt;1500,H20=0),"да","нет")</f>
+        <v>да</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>48.75028098959082</v>
+      </c>
+      <c r="H21" s="5">
+        <f ca="1">IF(G21&lt;&gt;" ",IF(G21&lt;$J$4,$G$3,IF(G21&lt;$J$5,$G$4,IF(G21&lt;$J$6,$G$5,$G$6))),IF(AND(G21=" ",H20=1),0,IF(AND(G21=" ",H20&gt;1),H20-1,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" ref="A22:A39" si="13">A21+1</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" ref="B22:B39" ca="1" si="14">IF(H21=1,E21+2500,E21)</f>
+        <v>1015</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>512.74199677447291</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ref="E22:E39" ca="1" si="15">IF(B22-D22&gt;0,B22-D22,0)</f>
+        <v>515</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f t="shared" ref="F22:F39" ca="1" si="16">IF(AND(B22&lt;1500,H21=0),"да","нет")</f>
+        <v>нет</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H22" s="5">
+        <f ca="1">IF(G22&lt;&gt;" ",IF(G22&lt;$J$4,$G$3,IF(G22&lt;$J$5,$G$4,IF(G22&lt;$J$6,$G$5,$G$6))),IF(AND(G22=" ",H21=1),0,IF(AND(G22=" ",H21&gt;1),H21-1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" ref="I22:I39" ca="1" si="17">IF(B22-D22&lt;0,B22-D22,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>3015</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>534.60985725419414</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>2515</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H23" s="5">
+        <f ca="1">IF(G23&lt;&gt;" ",IF(G23&lt;$J$4,$G$3,IF(G23&lt;$J$5,$G$4,IF(G23&lt;$J$6,$G$5,$G$6))),IF(AND(G23=" ",H22=1),0,IF(AND(G23=" ",H22&gt;1),H22-1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>2515</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>430.66464010689776</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>2015</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H24" s="5">
+        <f ca="1">IF(G24&lt;&gt;" ",IF(G24&lt;$J$4,$G$3,IF(G24&lt;$J$5,$G$4,IF(G24&lt;$J$6,$G$5,$G$6))),IF(AND(G24=" ",H23=1),0,IF(AND(G24=" ",H23&gt;1),H23-1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>2015</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>975.60276797665097</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>1495</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H25" s="5">
+        <f ca="1">IF(G25&lt;&gt;" ",IF(G25&lt;$J$4,$G$3,IF(G25&lt;$J$5,$G$4,IF(G25&lt;$J$6,$G$5,$G$6))),IF(AND(G25=" ",H24=1),0,IF(AND(G25=" ",H24&gt;1),H24-1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>1495</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>505.94457247414994</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>995</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>да</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6873243675670153</v>
+      </c>
+      <c r="H26" s="5">
+        <f ca="1">IF(G26&lt;&gt;" ",IF(G26&lt;$J$4,$G$3,IF(G26&lt;$J$5,$G$4,IF(G26&lt;$J$6,$G$5,$G$6))),IF(AND(G26=" ",H25=1),0,IF(AND(G26=" ",H25&gt;1),H25-1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>3495</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>908.03325315472205</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>515</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>2980</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H27" s="5">
+        <f ca="1">IF(G27&lt;&gt;" ",IF(G27&lt;$J$4,$G$3,IF(G27&lt;$J$5,$G$4,IF(G27&lt;$J$6,$G$5,$G$6))),IF(AND(G27=" ",H26=1),0,IF(AND(G27=" ",H26&gt;1),H26-1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>2980</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>855.0343854678714</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" ca="1" si="6"/>
         <v>510</v>
       </c>
-      <c r="E21" s="10">
-        <f ca="1">IF(B21-D21&gt;0,B21-D21,0)</f>
-        <v>980</v>
-      </c>
-      <c r="F21" s="10" t="str">
-        <f ca="1">IF(AND(B21&lt;1500,H20=0),"да","нет")</f>
+      <c r="E28" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>2470</v>
+      </c>
+      <c r="F28" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G28" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H28" s="5">
+        <f ca="1">IF(G28&lt;&gt;" ",IF(G28&lt;$J$4,$G$3,IF(G28&lt;$J$5,$G$4,IF(G28&lt;$J$6,$G$5,$G$6))),IF(AND(G28=" ",H27=1),0,IF(AND(G28=" ",H27&gt;1),H27-1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>2470</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>440.14130748192662</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>1970</v>
+      </c>
+      <c r="F29" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G29" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H29" s="5">
+        <f ca="1">IF(G29&lt;&gt;" ",IF(G29&lt;$J$4,$G$3,IF(G29&lt;$J$5,$G$4,IF(G29&lt;$J$6,$G$5,$G$6))),IF(AND(G29=" ",H28=1),0,IF(AND(G29=" ",H28&gt;1),H28-1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>1970</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>347.2129834825044</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>495</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>1475</v>
+      </c>
+      <c r="F30" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G30" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H30" s="5">
+        <f ca="1">IF(G30&lt;&gt;" ",IF(G30&lt;$J$4,$G$3,IF(G30&lt;$J$5,$G$4,IF(G30&lt;$J$6,$G$5,$G$6))),IF(AND(G30=" ",H29=1),0,IF(AND(G30=" ",H29&gt;1),H29-1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>1475</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>526.68057803506485</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>975</v>
+      </c>
+      <c r="F31" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
         <v>да</v>
       </c>
-      <c r="G21" s="10">
-        <f ca="1">IF(F21="да",RAND()*100," ")</f>
-        <v>64.572989984127815</v>
-      </c>
-      <c r="H21" s="10">
-        <f ca="1">IF(G21=" ",0,IF(G21&lt;$J$4,$G$3,
-IF(G21&lt;$J$5,$G$4,IF(G21&lt;$J$6,$G$5,$G$6))))</f>
+      <c r="G31" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>96.496651921391191</v>
+      </c>
+      <c r="H31" s="5">
+        <f ca="1">IF(G31&lt;&gt;" ",IF(G31&lt;$J$4,$G$3,IF(G31&lt;$J$5,$G$4,IF(G31&lt;$J$6,$G$5,$G$6))),IF(AND(G31=" ",H30=1),0,IF(AND(G31=" ",H30&gt;1),H30-1,0)))</f>
+        <v>4</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>975</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>457.73332364645324</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>475</v>
+      </c>
+      <c r="F32" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G32" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H32" s="5">
+        <f ca="1">IF(G32&lt;&gt;" ",IF(G32&lt;$J$4,$G$3,IF(G32&lt;$J$5,$G$4,IF(G32&lt;$J$6,$G$5,$G$6))),IF(AND(G32=" ",H31=1),0,IF(AND(G32=" ",H31&gt;1),H31-1,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>475</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>424.36594849334728</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G33" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H33" s="5">
+        <f ca="1">IF(G33&lt;&gt;" ",IF(G33&lt;$J$4,$G$3,IF(G33&lt;$J$5,$G$4,IF(G33&lt;$J$6,$G$5,$G$6))),IF(AND(G33=" ",H32=1),0,IF(AND(G33=" ",H32&gt;1),H32-1,0)))</f>
         <v>2</v>
       </c>
-      <c r="I21" s="10">
-        <f ca="1">IF(B21-D21&lt;0,B21-D21,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <f>A21+1</f>
+      <c r="I33" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>79.047155552726679</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>485</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G34" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H34" s="5">
+        <f ca="1">IF(G34&lt;&gt;" ",IF(G34&lt;$J$4,$G$3,IF(G34&lt;$J$5,$G$4,IF(G34&lt;$J$6,$G$5,$G$6))),IF(AND(G34=" ",H33=1),0,IF(AND(G34=" ",H33&gt;1),H33-1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>-485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="B35" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>2500</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>451.08838146512829</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>2000</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G35" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H35" s="5">
+        <f ca="1">IF(G35&lt;&gt;" ",IF(G35&lt;$J$4,$G$3,IF(G35&lt;$J$5,$G$4,IF(G35&lt;$J$6,$G$5,$G$6))),IF(AND(G35=" ",H34=1),0,IF(AND(G35=" ",H34&gt;1),H34-1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="B36" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>2000</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>226.51328826538207</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>495</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>1505</v>
+      </c>
+      <c r="F36" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G36" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H36" s="5">
+        <f ca="1">IF(G36&lt;&gt;" ",IF(G36&lt;$J$4,$G$3,IF(G36&lt;$J$5,$G$4,IF(G36&lt;$J$6,$G$5,$G$6))),IF(AND(G36=" ",H35=1),0,IF(AND(G36=" ",H35&gt;1),H35-1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="B37" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>1505</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.814249091674383</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>475</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>1030</v>
+      </c>
+      <c r="F37" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>нет</v>
+      </c>
+      <c r="G37" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H37" s="5">
+        <f ca="1">IF(G37&lt;&gt;" ",IF(G37&lt;$J$4,$G$3,IF(G37&lt;$J$5,$G$4,IF(G37&lt;$J$6,$G$5,$G$6))),IF(AND(G37=" ",H36=1),0,IF(AND(G37=" ",H36&gt;1),H36-1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="B38" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>1030</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>347.21749197034359</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>495</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>535</v>
+      </c>
+      <c r="F38" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>да</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>81.041438210506286</v>
+      </c>
+      <c r="H38" s="5">
+        <f ca="1">IF(G38&lt;&gt;" ",IF(G38&lt;$J$4,$G$3,IF(G38&lt;$J$5,$G$4,IF(G38&lt;$J$6,$G$5,$G$6))),IF(AND(G38=" ",H37=1),0,IF(AND(G38=" ",H37&gt;1),H37-1,0)))</f>
         <v>3</v>
       </c>
-      <c r="B22" s="10">
-        <f ca="1">IF(H21=1,E21+2500,E21)</f>
-        <v>980</v>
-      </c>
-      <c r="C22" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>559.46070836075307</v>
-      </c>
-      <c r="D22" s="10">
-        <f ca="1">IF(C22&lt;401,IF(C22&lt;$E$3,$A$3,IF(C22&lt;$E$4,$A$4,IF(C22&lt;$E$5,$A$5,IF(C22&lt;$E$6,$A$6,IF(C22&lt;$E$7,$A$7,$A$8))))),IF(C22&lt;$E$9,$A$9,IF(C22&lt;$E$10,$A$10,IF(C22&lt;$E$11,$A$11,IF(C22&lt;$E$12,$A$12,IF(C22&lt;$E$13,$A$13,IF(C22&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>500</v>
-      </c>
-      <c r="E22" s="10">
-        <f ca="1">IF(B22-D22&gt;0,B22-D22,0)</f>
-        <v>480</v>
-      </c>
-      <c r="F22" s="10" t="str">
-        <f ca="1">IF(AND(B22&lt;1500,H21=0),"да","нет")</f>
+      <c r="I38" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="B39" s="5">
+        <f t="shared" ca="1" si="14"/>
+        <v>535</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>207.45543685830958</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>490</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>45</v>
+      </c>
+      <c r="F39" s="5" t="str">
+        <f t="shared" ca="1" si="16"/>
         <v>нет</v>
       </c>
-      <c r="G22" s="10" t="str">
-        <f ca="1">IF(F22="да",RAND()*100," ")</f>
+      <c r="G39" s="5" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H22" s="10">
-        <f ca="1">IF(G22=" ",0,IF(G22&lt;$J$4,$G$3,
-IF(G22&lt;$J$5,$G$4,IF(G22&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="10">
-        <f ca="1">IF(B22-D22&lt;0,B22-D22,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <f>A22+1</f>
-        <v>4</v>
-      </c>
-      <c r="B23" s="10">
-        <f ca="1">IF(H22=1,E22+2500,E22)</f>
-        <v>480</v>
-      </c>
-      <c r="C23" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>576.98731432438865</v>
-      </c>
-      <c r="D23" s="10">
-        <f ca="1">IF(C23&lt;401,IF(C23&lt;$E$3,$A$3,IF(C23&lt;$E$4,$A$4,IF(C23&lt;$E$5,$A$5,IF(C23&lt;$E$6,$A$6,IF(C23&lt;$E$7,$A$7,$A$8))))),IF(C23&lt;$E$9,$A$9,IF(C23&lt;$E$10,$A$10,IF(C23&lt;$E$11,$A$11,IF(C23&lt;$E$12,$A$12,IF(C23&lt;$E$13,$A$13,IF(C23&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>500</v>
-      </c>
-      <c r="E23" s="10">
-        <f ca="1">IF(B23-D23&gt;0,B23-D23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="10" t="str">
-        <f ca="1">IF(AND(B23&lt;1500,H22=0),"да","нет")</f>
-        <v>да</v>
-      </c>
-      <c r="G23" s="10">
-        <f ca="1">IF(F23="да",RAND()*100," ")</f>
-        <v>64.985355757011803</v>
-      </c>
-      <c r="H23" s="10">
-        <f ca="1">IF(G23=" ",0,IF(G23&lt;$J$4,$G$3,
-IF(G23&lt;$J$5,$G$4,IF(G23&lt;$J$6,$G$5,$G$6))))</f>
+      <c r="H39" s="5">
+        <f ca="1">IF(G39&lt;&gt;" ",IF(G39&lt;$J$4,$G$3,IF(G39&lt;$J$5,$G$4,IF(G39&lt;$J$6,$G$5,$G$6))),IF(AND(G39=" ",H38=1),0,IF(AND(G39=" ",H38&gt;1),H38-1,0)))</f>
         <v>2</v>
       </c>
-      <c r="I23" s="10">
-        <f ca="1">IF(B23-D23&lt;0,B23-D23,0)</f>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <f>A23+1</f>
-        <v>5</v>
-      </c>
-      <c r="B24" s="10">
-        <f ca="1">IF(H23=1,E23+2500,E23)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>1.3825281876319595</v>
-      </c>
-      <c r="D24" s="10">
-        <f ca="1">IF(C24&lt;401,IF(C24&lt;$E$3,$A$3,IF(C24&lt;$E$4,$A$4,IF(C24&lt;$E$5,$A$5,IF(C24&lt;$E$6,$A$6,IF(C24&lt;$E$7,$A$7,$A$8))))),IF(C24&lt;$E$9,$A$9,IF(C24&lt;$E$10,$A$10,IF(C24&lt;$E$11,$A$11,IF(C24&lt;$E$12,$A$12,IF(C24&lt;$E$13,$A$13,IF(C24&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>475</v>
-      </c>
-      <c r="E24" s="10">
-        <f ca="1">IF(B24-D24&gt;0,B24-D24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="10" t="str">
-        <f ca="1">IF(AND(B24&lt;1500,H23=0),"да","нет")</f>
-        <v>нет</v>
-      </c>
-      <c r="G24" s="10" t="str">
-        <f ca="1">IF(F24="да",RAND()*100," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H24" s="10">
-        <f ca="1">IF(G24=" ",0,IF(G24&lt;$J$4,$G$3,
-IF(G24&lt;$J$5,$G$4,IF(G24&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <f ca="1">IF(B24-D24&lt;0,B24-D24,0)</f>
-        <v>-475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <f>A24+1</f>
-        <v>6</v>
-      </c>
-      <c r="B25" s="10">
-        <f ca="1">IF(H24=1,E24+2500,E24)</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>649.65133128241712</v>
-      </c>
-      <c r="D25" s="10">
-        <f ca="1">IF(C25&lt;401,IF(C25&lt;$E$3,$A$3,IF(C25&lt;$E$4,$A$4,IF(C25&lt;$E$5,$A$5,IF(C25&lt;$E$6,$A$6,IF(C25&lt;$E$7,$A$7,$A$8))))),IF(C25&lt;$E$9,$A$9,IF(C25&lt;$E$10,$A$10,IF(C25&lt;$E$11,$A$11,IF(C25&lt;$E$12,$A$12,IF(C25&lt;$E$13,$A$13,IF(C25&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>505</v>
-      </c>
-      <c r="E25" s="10">
-        <f ca="1">IF(B25-D25&gt;0,B25-D25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="10" t="str">
-        <f ca="1">IF(AND(B25&lt;1500,H24=0),"да","нет")</f>
-        <v>да</v>
-      </c>
-      <c r="G25" s="10">
-        <f ca="1">IF(F25="да",RAND()*100," ")</f>
-        <v>27.218894495967248</v>
-      </c>
-      <c r="H25" s="10">
-        <f ca="1">IF(G25=" ",0,IF(G25&lt;$J$4,$G$3,
-IF(G25&lt;$J$5,$G$4,IF(G25&lt;$J$6,$G$5,$G$6))))</f>
-        <v>2</v>
-      </c>
-      <c r="I25" s="10">
-        <f ca="1">IF(B25-D25&lt;0,B25-D25,0)</f>
-        <v>-505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <f>A25+1</f>
-        <v>7</v>
-      </c>
-      <c r="B26" s="10">
-        <f ca="1">IF(H25=1,E25+2500,E25)</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>745.68924708367149</v>
-      </c>
-      <c r="D26" s="10">
-        <f ca="1">IF(C26&lt;401,IF(C26&lt;$E$3,$A$3,IF(C26&lt;$E$4,$A$4,IF(C26&lt;$E$5,$A$5,IF(C26&lt;$E$6,$A$6,IF(C26&lt;$E$7,$A$7,$A$8))))),IF(C26&lt;$E$9,$A$9,IF(C26&lt;$E$10,$A$10,IF(C26&lt;$E$11,$A$11,IF(C26&lt;$E$12,$A$12,IF(C26&lt;$E$13,$A$13,IF(C26&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>505</v>
-      </c>
-      <c r="E26" s="10">
-        <f ca="1">IF(B26-D26&gt;0,B26-D26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10" t="str">
-        <f ca="1">IF(AND(B26&lt;1500,H25=0),"да","нет")</f>
-        <v>нет</v>
-      </c>
-      <c r="G26" s="10" t="str">
-        <f ca="1">IF(F26="да",RAND()*100," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H26" s="10">
-        <f ca="1">IF(G26=" ",0,IF(G26&lt;$J$4,$G$3,
-IF(G26&lt;$J$5,$G$4,IF(G26&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <f ca="1">IF(B26-D26&lt;0,B26-D26,0)</f>
-        <v>-505</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <f>A26+1</f>
-        <v>8</v>
-      </c>
-      <c r="B27" s="10">
-        <f ca="1">IF(H26=1,E26+2500,E26)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>808.27564604108659</v>
-      </c>
-      <c r="D27" s="10">
-        <f ca="1">IF(C27&lt;401,IF(C27&lt;$E$3,$A$3,IF(C27&lt;$E$4,$A$4,IF(C27&lt;$E$5,$A$5,IF(C27&lt;$E$6,$A$6,IF(C27&lt;$E$7,$A$7,$A$8))))),IF(C27&lt;$E$9,$A$9,IF(C27&lt;$E$10,$A$10,IF(C27&lt;$E$11,$A$11,IF(C27&lt;$E$12,$A$12,IF(C27&lt;$E$13,$A$13,IF(C27&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>510</v>
-      </c>
-      <c r="E27" s="10">
-        <f ca="1">IF(B27-D27&gt;0,B27-D27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="10" t="str">
-        <f ca="1">IF(AND(B27&lt;1500,H26=0),"да","нет")</f>
-        <v>да</v>
-      </c>
-      <c r="G27" s="10">
-        <f ca="1">IF(F27="да",RAND()*100," ")</f>
-        <v>16.782549261029899</v>
-      </c>
-      <c r="H27" s="10">
-        <f ca="1">IF(G27=" ",0,IF(G27&lt;$J$4,$G$3,
-IF(G27&lt;$J$5,$G$4,IF(G27&lt;$J$6,$G$5,$G$6))))</f>
-        <v>1</v>
-      </c>
-      <c r="I27" s="10">
-        <f ca="1">IF(B27-D27&lt;0,B27-D27,0)</f>
-        <v>-510</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <f>A27+1</f>
-        <v>9</v>
-      </c>
-      <c r="B28" s="10">
-        <f ca="1">IF(H27=1,E27+2500,E27)</f>
-        <v>2500</v>
-      </c>
-      <c r="C28" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>234.65996816386826</v>
-      </c>
-      <c r="D28" s="10">
-        <f ca="1">IF(C28&lt;401,IF(C28&lt;$E$3,$A$3,IF(C28&lt;$E$4,$A$4,IF(C28&lt;$E$5,$A$5,IF(C28&lt;$E$6,$A$6,IF(C28&lt;$E$7,$A$7,$A$8))))),IF(C28&lt;$E$9,$A$9,IF(C28&lt;$E$10,$A$10,IF(C28&lt;$E$11,$A$11,IF(C28&lt;$E$12,$A$12,IF(C28&lt;$E$13,$A$13,IF(C28&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>495</v>
-      </c>
-      <c r="E28" s="10">
-        <f ca="1">IF(B28-D28&gt;0,B28-D28,0)</f>
-        <v>2005</v>
-      </c>
-      <c r="F28" s="10" t="str">
-        <f ca="1">IF(AND(B28&lt;1500,H27=0),"да","нет")</f>
-        <v>нет</v>
-      </c>
-      <c r="G28" s="10" t="str">
-        <f ca="1">IF(F28="да",RAND()*100," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H28" s="10">
-        <f ca="1">IF(G28=" ",0,IF(G28&lt;$J$4,$G$3,
-IF(G28&lt;$J$5,$G$4,IF(G28&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
-        <f ca="1">IF(B28-D28&lt;0,B28-D28,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <f>A28+1</f>
-        <v>10</v>
-      </c>
-      <c r="B29" s="10">
-        <f ca="1">IF(H28=1,E28+2500,E28)</f>
-        <v>2005</v>
-      </c>
-      <c r="C29" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>298.46699890186477</v>
-      </c>
-      <c r="D29" s="10">
-        <f ca="1">IF(C29&lt;401,IF(C29&lt;$E$3,$A$3,IF(C29&lt;$E$4,$A$4,IF(C29&lt;$E$5,$A$5,IF(C29&lt;$E$6,$A$6,IF(C29&lt;$E$7,$A$7,$A$8))))),IF(C29&lt;$E$9,$A$9,IF(C29&lt;$E$10,$A$10,IF(C29&lt;$E$11,$A$11,IF(C29&lt;$E$12,$A$12,IF(C29&lt;$E$13,$A$13,IF(C29&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>495</v>
-      </c>
-      <c r="E29" s="10">
-        <f ca="1">IF(B29-D29&gt;0,B29-D29,0)</f>
-        <v>1510</v>
-      </c>
-      <c r="F29" s="10" t="str">
-        <f ca="1">IF(AND(B29&lt;1500,H28=0),"да","нет")</f>
-        <v>нет</v>
-      </c>
-      <c r="G29" s="10" t="str">
-        <f ca="1">IF(F29="да",RAND()*100," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H29" s="10">
-        <f ca="1">IF(G29=" ",0,IF(G29&lt;$J$4,$G$3,
-IF(G29&lt;$J$5,$G$4,IF(G29&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
-        <f ca="1">IF(B29-D29&lt;0,B29-D29,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <f>A29+1</f>
-        <v>11</v>
-      </c>
-      <c r="B30" s="10">
-        <f ca="1">IF(H29=1,E29+2500,E29)</f>
-        <v>1510</v>
-      </c>
-      <c r="C30" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>90.320219195693326</v>
-      </c>
-      <c r="D30" s="10">
-        <f ca="1">IF(C30&lt;401,IF(C30&lt;$E$3,$A$3,IF(C30&lt;$E$4,$A$4,IF(C30&lt;$E$5,$A$5,IF(C30&lt;$E$6,$A$6,IF(C30&lt;$E$7,$A$7,$A$8))))),IF(C30&lt;$E$9,$A$9,IF(C30&lt;$E$10,$A$10,IF(C30&lt;$E$11,$A$11,IF(C30&lt;$E$12,$A$12,IF(C30&lt;$E$13,$A$13,IF(C30&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>485</v>
-      </c>
-      <c r="E30" s="10">
-        <f ca="1">IF(B30-D30&gt;0,B30-D30,0)</f>
-        <v>1025</v>
-      </c>
-      <c r="F30" s="10" t="str">
-        <f ca="1">IF(AND(B30&lt;1500,H29=0),"да","нет")</f>
-        <v>нет</v>
-      </c>
-      <c r="G30" s="10" t="str">
-        <f ca="1">IF(F30="да",RAND()*100," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H30" s="10">
-        <f ca="1">IF(G30=" ",0,IF(G30&lt;$J$4,$G$3,
-IF(G30&lt;$J$5,$G$4,IF(G30&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="10">
-        <f ca="1">IF(B30-D30&lt;0,B30-D30,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <f>A30+1</f>
-        <v>12</v>
-      </c>
-      <c r="B31" s="10">
-        <f ca="1">IF(H30=1,E30+2500,E30)</f>
-        <v>1025</v>
-      </c>
-      <c r="C31" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>535.30977967651904</v>
-      </c>
-      <c r="D31" s="10">
-        <f ca="1">IF(C31&lt;401,IF(C31&lt;$E$3,$A$3,IF(C31&lt;$E$4,$A$4,IF(C31&lt;$E$5,$A$5,IF(C31&lt;$E$6,$A$6,IF(C31&lt;$E$7,$A$7,$A$8))))),IF(C31&lt;$E$9,$A$9,IF(C31&lt;$E$10,$A$10,IF(C31&lt;$E$11,$A$11,IF(C31&lt;$E$12,$A$12,IF(C31&lt;$E$13,$A$13,IF(C31&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>500</v>
-      </c>
-      <c r="E31" s="10">
-        <f ca="1">IF(B31-D31&gt;0,B31-D31,0)</f>
-        <v>525</v>
-      </c>
-      <c r="F31" s="10" t="str">
-        <f ca="1">IF(AND(B31&lt;1500,H30=0),"да","нет")</f>
-        <v>да</v>
-      </c>
-      <c r="G31" s="10">
-        <f ca="1">IF(F31="да",RAND()*100," ")</f>
-        <v>80.694400048029806</v>
-      </c>
-      <c r="H31" s="10">
-        <f ca="1">IF(G31=" ",0,IF(G31&lt;$J$4,$G$3,
-IF(G31&lt;$J$5,$G$4,IF(G31&lt;$J$6,$G$5,$G$6))))</f>
-        <v>3</v>
-      </c>
-      <c r="I31" s="10">
-        <f ca="1">IF(B31-D31&lt;0,B31-D31,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <f>A31+1</f>
-        <v>13</v>
-      </c>
-      <c r="B32" s="10">
-        <f ca="1">IF(H31=1,E31+2500,E31)</f>
-        <v>525</v>
-      </c>
-      <c r="C32" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>103.05010203981102</v>
-      </c>
-      <c r="D32" s="10">
-        <f ca="1">IF(C32&lt;401,IF(C32&lt;$E$3,$A$3,IF(C32&lt;$E$4,$A$4,IF(C32&lt;$E$5,$A$5,IF(C32&lt;$E$6,$A$6,IF(C32&lt;$E$7,$A$7,$A$8))))),IF(C32&lt;$E$9,$A$9,IF(C32&lt;$E$10,$A$10,IF(C32&lt;$E$11,$A$11,IF(C32&lt;$E$12,$A$12,IF(C32&lt;$E$13,$A$13,IF(C32&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>485</v>
-      </c>
-      <c r="E32" s="10">
-        <f ca="1">IF(B32-D32&gt;0,B32-D32,0)</f>
-        <v>40</v>
-      </c>
-      <c r="F32" s="10" t="str">
-        <f ca="1">IF(AND(B32&lt;1500,H31=0),"да","нет")</f>
-        <v>нет</v>
-      </c>
-      <c r="G32" s="10" t="str">
-        <f ca="1">IF(F32="да",RAND()*100," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H32" s="10">
-        <f ca="1">IF(G32=" ",0,IF(G32&lt;$J$4,$G$3,
-IF(G32&lt;$J$5,$G$4,IF(G32&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="10">
-        <f ca="1">IF(B32-D32&lt;0,B32-D32,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <f>A32+1</f>
-        <v>14</v>
-      </c>
-      <c r="B33" s="10">
-        <f ca="1">IF(H32=1,E32+2500,E32)</f>
-        <v>40</v>
-      </c>
-      <c r="C33" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>304.47027702325471</v>
-      </c>
-      <c r="D33" s="10">
-        <f ca="1">IF(C33&lt;401,IF(C33&lt;$E$3,$A$3,IF(C33&lt;$E$4,$A$4,IF(C33&lt;$E$5,$A$5,IF(C33&lt;$E$6,$A$6,IF(C33&lt;$E$7,$A$7,$A$8))))),IF(C33&lt;$E$9,$A$9,IF(C33&lt;$E$10,$A$10,IF(C33&lt;$E$11,$A$11,IF(C33&lt;$E$12,$A$12,IF(C33&lt;$E$13,$A$13,IF(C33&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>495</v>
-      </c>
-      <c r="E33" s="10">
-        <f ca="1">IF(B33-D33&gt;0,B33-D33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="10" t="str">
-        <f ca="1">IF(AND(B33&lt;1500,H32=0),"да","нет")</f>
-        <v>да</v>
-      </c>
-      <c r="G33" s="10">
-        <f ca="1">IF(F33="да",RAND()*100," ")</f>
-        <v>2.9533623231508765</v>
-      </c>
-      <c r="H33" s="10">
-        <f ca="1">IF(G33=" ",0,IF(G33&lt;$J$4,$G$3,
-IF(G33&lt;$J$5,$G$4,IF(G33&lt;$J$6,$G$5,$G$6))))</f>
-        <v>1</v>
-      </c>
-      <c r="I33" s="10">
-        <f ca="1">IF(B33-D33&lt;0,B33-D33,0)</f>
-        <v>-455</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <f>A33+1</f>
-        <v>15</v>
-      </c>
-      <c r="B34" s="10">
-        <f ca="1">IF(H33=1,E33+2500,E33)</f>
-        <v>2500</v>
-      </c>
-      <c r="C34" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>356.50037539288269</v>
-      </c>
-      <c r="D34" s="10">
-        <f ca="1">IF(C34&lt;401,IF(C34&lt;$E$3,$A$3,IF(C34&lt;$E$4,$A$4,IF(C34&lt;$E$5,$A$5,IF(C34&lt;$E$6,$A$6,IF(C34&lt;$E$7,$A$7,$A$8))))),IF(C34&lt;$E$9,$A$9,IF(C34&lt;$E$10,$A$10,IF(C34&lt;$E$11,$A$11,IF(C34&lt;$E$12,$A$12,IF(C34&lt;$E$13,$A$13,IF(C34&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>495</v>
-      </c>
-      <c r="E34" s="10">
-        <f ca="1">IF(B34-D34&gt;0,B34-D34,0)</f>
-        <v>2005</v>
-      </c>
-      <c r="F34" s="10" t="str">
-        <f ca="1">IF(AND(B34&lt;1500,H33=0),"да","нет")</f>
-        <v>нет</v>
-      </c>
-      <c r="G34" s="10" t="str">
-        <f ca="1">IF(F34="да",RAND()*100," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H34" s="10">
-        <f ca="1">IF(G34=" ",0,IF(G34&lt;$J$4,$G$3,
-IF(G34&lt;$J$5,$G$4,IF(G34&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <f ca="1">IF(B34-D34&lt;0,B34-D34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <f>A34+1</f>
-        <v>16</v>
-      </c>
-      <c r="B35" s="10">
-        <f ca="1">IF(H34=1,E34+2500,E34)</f>
-        <v>2005</v>
-      </c>
-      <c r="C35" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>447.08999217207344</v>
-      </c>
-      <c r="D35" s="10">
-        <f ca="1">IF(C35&lt;401,IF(C35&lt;$E$3,$A$3,IF(C35&lt;$E$4,$A$4,IF(C35&lt;$E$5,$A$5,IF(C35&lt;$E$6,$A$6,IF(C35&lt;$E$7,$A$7,$A$8))))),IF(C35&lt;$E$9,$A$9,IF(C35&lt;$E$10,$A$10,IF(C35&lt;$E$11,$A$11,IF(C35&lt;$E$12,$A$12,IF(C35&lt;$E$13,$A$13,IF(C35&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>500</v>
-      </c>
-      <c r="E35" s="10">
-        <f ca="1">IF(B35-D35&gt;0,B35-D35,0)</f>
-        <v>1505</v>
-      </c>
-      <c r="F35" s="10" t="str">
-        <f ca="1">IF(AND(B35&lt;1500,H34=0),"да","нет")</f>
-        <v>нет</v>
-      </c>
-      <c r="G35" s="10" t="str">
-        <f ca="1">IF(F35="да",RAND()*100," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H35" s="10">
-        <f ca="1">IF(G35=" ",0,IF(G35&lt;$J$4,$G$3,
-IF(G35&lt;$J$5,$G$4,IF(G35&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
-        <f ca="1">IF(B35-D35&lt;0,B35-D35,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <f>A35+1</f>
-        <v>17</v>
-      </c>
-      <c r="B36" s="10">
-        <f ca="1">IF(H35=1,E35+2500,E35)</f>
-        <v>1505</v>
-      </c>
-      <c r="C36" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>428.5106098267226</v>
-      </c>
-      <c r="D36" s="10">
-        <f ca="1">IF(C36&lt;401,IF(C36&lt;$E$3,$A$3,IF(C36&lt;$E$4,$A$4,IF(C36&lt;$E$5,$A$5,IF(C36&lt;$E$6,$A$6,IF(C36&lt;$E$7,$A$7,$A$8))))),IF(C36&lt;$E$9,$A$9,IF(C36&lt;$E$10,$A$10,IF(C36&lt;$E$11,$A$11,IF(C36&lt;$E$12,$A$12,IF(C36&lt;$E$13,$A$13,IF(C36&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>500</v>
-      </c>
-      <c r="E36" s="10">
-        <f ca="1">IF(B36-D36&gt;0,B36-D36,0)</f>
-        <v>1005</v>
-      </c>
-      <c r="F36" s="10" t="str">
-        <f ca="1">IF(AND(B36&lt;1500,H35=0),"да","нет")</f>
-        <v>нет</v>
-      </c>
-      <c r="G36" s="10" t="str">
-        <f ca="1">IF(F36="да",RAND()*100," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H36" s="10">
-        <f ca="1">IF(G36=" ",0,IF(G36&lt;$J$4,$G$3,
-IF(G36&lt;$J$5,$G$4,IF(G36&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="10">
-        <f ca="1">IF(B36-D36&lt;0,B36-D36,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <f>A36+1</f>
+      <c r="I39" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="10">
-        <f ca="1">IF(H36=1,E36+2500,E36)</f>
-        <v>1005</v>
-      </c>
-      <c r="C37" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>402.77643487221894</v>
-      </c>
-      <c r="D37" s="10">
-        <f ca="1">IF(C37&lt;401,IF(C37&lt;$E$3,$A$3,IF(C37&lt;$E$4,$A$4,IF(C37&lt;$E$5,$A$5,IF(C37&lt;$E$6,$A$6,IF(C37&lt;$E$7,$A$7,$A$8))))),IF(C37&lt;$E$9,$A$9,IF(C37&lt;$E$10,$A$10,IF(C37&lt;$E$11,$A$11,IF(C37&lt;$E$12,$A$12,IF(C37&lt;$E$13,$A$13,IF(C37&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>500</v>
-      </c>
-      <c r="E37" s="10">
-        <f ca="1">IF(B37-D37&gt;0,B37-D37,0)</f>
-        <v>505</v>
-      </c>
-      <c r="F37" s="10" t="str">
-        <f ca="1">IF(AND(B37&lt;1500,H36=0),"да","нет")</f>
-        <v>да</v>
-      </c>
-      <c r="G37" s="10">
-        <f ca="1">IF(F37="да",RAND()*100," ")</f>
-        <v>4.5583330187048965</v>
-      </c>
-      <c r="H37" s="10">
-        <f ca="1">IF(G37=" ",0,IF(G37&lt;$J$4,$G$3,
-IF(G37&lt;$J$5,$G$4,IF(G37&lt;$J$6,$G$5,$G$6))))</f>
-        <v>1</v>
-      </c>
-      <c r="I37" s="10">
-        <f ca="1">IF(B37-D37&lt;0,B37-D37,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <f>A37+1</f>
-        <v>19</v>
-      </c>
-      <c r="B38" s="10">
-        <f ca="1">IF(H37=1,E37+2500,E37)</f>
-        <v>3005</v>
-      </c>
-      <c r="C38" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>775.72597631166968</v>
-      </c>
-      <c r="D38" s="10">
-        <f ca="1">IF(C38&lt;401,IF(C38&lt;$E$3,$A$3,IF(C38&lt;$E$4,$A$4,IF(C38&lt;$E$5,$A$5,IF(C38&lt;$E$6,$A$6,IF(C38&lt;$E$7,$A$7,$A$8))))),IF(C38&lt;$E$9,$A$9,IF(C38&lt;$E$10,$A$10,IF(C38&lt;$E$11,$A$11,IF(C38&lt;$E$12,$A$12,IF(C38&lt;$E$13,$A$13,IF(C38&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>510</v>
-      </c>
-      <c r="E38" s="10">
-        <f ca="1">IF(B38-D38&gt;0,B38-D38,0)</f>
-        <v>2495</v>
-      </c>
-      <c r="F38" s="10" t="str">
-        <f ca="1">IF(AND(B38&lt;1500,H37=0),"да","нет")</f>
-        <v>нет</v>
-      </c>
-      <c r="G38" s="10" t="str">
-        <f ca="1">IF(F38="да",RAND()*100," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H38" s="10">
-        <f ca="1">IF(G38=" ",0,IF(G38&lt;$J$4,$G$3,
-IF(G38&lt;$J$5,$G$4,IF(G38&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="10">
-        <f ca="1">IF(B38-D38&lt;0,B38-D38,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <f>A38+1</f>
-        <v>20</v>
-      </c>
-      <c r="B39" s="10">
-        <f ca="1">IF(H38=1,E38+2500,E38)</f>
-        <v>2495</v>
-      </c>
-      <c r="C39" s="10">
-        <f ca="1">RAND()*1000</f>
-        <v>564.83454635800388</v>
-      </c>
-      <c r="D39" s="10">
-        <f ca="1">IF(C39&lt;401,IF(C39&lt;$E$3,$A$3,IF(C39&lt;$E$4,$A$4,IF(C39&lt;$E$5,$A$5,IF(C39&lt;$E$6,$A$6,IF(C39&lt;$E$7,$A$7,$A$8))))),IF(C39&lt;$E$9,$A$9,IF(C39&lt;$E$10,$A$10,IF(C39&lt;$E$11,$A$11,IF(C39&lt;$E$12,$A$12,IF(C39&lt;$E$13,$A$13,IF(C39&lt;$E$14,$A$14,$A$15)))))))</f>
-        <v>500</v>
-      </c>
-      <c r="E39" s="10">
-        <f ca="1">IF(B39-D39&gt;0,B39-D39,0)</f>
-        <v>1995</v>
-      </c>
-      <c r="F39" s="10" t="str">
-        <f ca="1">IF(AND(B39&lt;1500,H38=0),"да","нет")</f>
-        <v>нет</v>
-      </c>
-      <c r="G39" s="10" t="str">
-        <f ca="1">IF(F39="да",RAND()*100," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H39" s="10">
-        <f ca="1">IF(G39=" ",0,IF(G39&lt;$J$4,$G$3,
-IF(G39&lt;$J$5,$G$4,IF(G39&lt;$J$6,$G$5,$G$6))))</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="10">
-        <f ca="1">IF(B39-D39&lt;0,B39-D39,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="D40">
         <f ca="1">SUM(D20:D39)</f>
-        <v>9975</v>
+        <v>9965</v>
       </c>
       <c r="E40">
         <f ca="1">SUM(E20:E39)</f>
-        <v>17565</v>
+        <v>25505</v>
       </c>
       <c r="G40">
         <f ca="1">COUNT(G20:G39)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <f ca="1">SUM(I20:I39)</f>
-        <v>-2470</v>
+        <v>-510</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="D41">
         <f ca="1">AVERAGE(D20:D40)</f>
-        <v>950</v>
+        <v>949.04761904761904</v>
       </c>
       <c r="E41">
         <f ca="1">AVERAGE(E20:E40)</f>
-        <v>1672.8571428571429</v>
+        <v>2429.0476190476193</v>
       </c>
       <c r="G41">
         <f ca="1">COUNT(G20:G39)/20</f>
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="I41">
         <f ca="1">AVERAGE(I20:I40)</f>
-        <v>-235.23809523809524</v>
+        <v>-48.571428571428569</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
       <c r="E42">
         <f ca="1">E41*0.5+I41*(-1)*20+G41*50</f>
-        <v>5558.6904761904761</v>
+        <v>2195.9523809523807</v>
       </c>
       <c r="F42" t="s">
         <v>21</v>
@@ -1843,6 +1823,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:D42"/>
@@ -1859,8 +1841,6 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
